--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Table_Stage" sheetId="8" r:id="rId1"/>
@@ -220,206 +220,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -706,16 +507,16 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -749,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -766,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -783,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -800,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -817,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -834,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -842,16 +643,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D8" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -868,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -885,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -902,7 +703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>

--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -60,6 +60,18 @@
   <si>
     <t>Stage_Pattern_ID_List</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventure_Quest_ID_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;int32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adventure_Quest_ID_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,219 +516,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="9">
+      <c r="G6" s="9">
         <v>4</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="G7" s="9">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9">
         <v>17</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9">
         <v>9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="G9" s="9">
         <v>10</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9">
         <v>11</v>
       </c>
-      <c r="D10" s="9">
+      <c r="G10" s="9">
         <v>12</v>
       </c>
-      <c r="E10" s="9">
+      <c r="H10" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9">
         <v>14</v>
       </c>
-      <c r="D11" s="9">
+      <c r="G11" s="9">
         <v>15</v>
       </c>
-      <c r="E11" s="9">
+      <c r="H11" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9">
         <v>17</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>Adventure_Quest_ID_List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +235,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,18 +532,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" customWidth="1"/>
+    <col min="6" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -839,6 +855,32 @@
         <v>0</v>
       </c>
       <c r="H12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10">
+        <v>28</v>
+      </c>
+      <c r="E13" s="10">
+        <v>28</v>
+      </c>
+      <c r="F13" s="11">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,49 +625,49 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="A4" s="10">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10">
+        <v>28</v>
+      </c>
+      <c r="F4" s="11">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5</v>
-      </c>
       <c r="E5" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -678,25 +678,25 @@
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -704,25 +704,25 @@
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9">
         <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -730,25 +730,25 @@
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9">
-        <v>17</v>
-      </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -756,25 +756,25 @@
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9">
         <v>17</v>
       </c>
-      <c r="E9" s="8">
-        <v>18</v>
-      </c>
-      <c r="F9" s="9">
-        <v>9</v>
-      </c>
       <c r="G9" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -782,105 +782,105 @@
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="9">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G11" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" s="9">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9">
+        <v>15</v>
+      </c>
+      <c r="H12" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8">
         <v>25</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>26</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>27</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>17</v>
       </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10">
-        <v>28</v>
-      </c>
-      <c r="D13" s="10">
-        <v>28</v>
-      </c>
-      <c r="E13" s="10">
-        <v>28</v>
-      </c>
-      <c r="F13" s="11">
-        <v>18</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -75,6 +75,53 @@
   </si>
   <si>
     <t>tutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirDrop_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuddenDeath_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number_Of_DropItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number_Of_GliderGoblin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GliderGoblin_Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GliderGoblin_Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,14 +201,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,19 +225,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -222,12 +250,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -237,11 +259,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,21 +560,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" customWidth="1"/>
-    <col min="6" max="8" width="11.625" customWidth="1"/>
+    <col min="3" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="12" width="12" customWidth="1"/>
+    <col min="13" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,335 +583,611 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
+        <v>120</v>
+      </c>
+      <c r="D4" s="6">
+        <v>121</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>121</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>28</v>
       </c>
-      <c r="D4" s="10">
+      <c r="K4" s="6">
         <v>28</v>
       </c>
-      <c r="E4" s="10">
+      <c r="L4" s="6">
         <v>28</v>
       </c>
-      <c r="F4" s="11">
+      <c r="M4" s="7">
         <v>18</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="6">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>90</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>90</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="K6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="L6" s="6">
         <v>6</v>
       </c>
-      <c r="F6" s="9">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
+        <v>150</v>
+      </c>
+      <c r="D7" s="6">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>120</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
         <v>7</v>
       </c>
-      <c r="D7" s="8">
+      <c r="K7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="8">
+      <c r="L7" s="6">
         <v>9</v>
       </c>
-      <c r="F7" s="9">
+      <c r="M7" s="7">
         <v>3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="N7" s="7">
         <v>4</v>
       </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
+        <v>150</v>
+      </c>
+      <c r="D8" s="6">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>120</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="K8" s="6">
         <v>11</v>
       </c>
-      <c r="E8" s="8">
+      <c r="L8" s="6">
         <v>12</v>
       </c>
-      <c r="F8" s="9">
+      <c r="M8" s="7">
         <v>5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="N8" s="7">
         <v>6</v>
       </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>90</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>13</v>
       </c>
-      <c r="D9" s="8">
+      <c r="K9" s="6">
         <v>14</v>
       </c>
-      <c r="E9" s="8">
+      <c r="L9" s="6">
         <v>15</v>
       </c>
-      <c r="F9" s="9">
+      <c r="M9" s="7">
         <v>17</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
+        <v>150</v>
+      </c>
+      <c r="D10" s="6">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>120</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
+      <c r="K10" s="6">
         <v>17</v>
       </c>
-      <c r="E10" s="8">
+      <c r="L10" s="6">
         <v>18</v>
       </c>
-      <c r="F10" s="9">
+      <c r="M10" s="7">
         <v>9</v>
       </c>
-      <c r="G10" s="9">
+      <c r="N10" s="7">
         <v>10</v>
       </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
+        <v>150</v>
+      </c>
+      <c r="D11" s="6">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>120</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
         <v>19</v>
       </c>
-      <c r="D11" s="8">
+      <c r="K11" s="6">
         <v>20</v>
       </c>
-      <c r="E11" s="8">
+      <c r="L11" s="6">
         <v>21</v>
       </c>
-      <c r="F11" s="9">
+      <c r="M11" s="7">
         <v>11</v>
       </c>
-      <c r="G11" s="9">
+      <c r="N11" s="7">
         <v>12</v>
       </c>
-      <c r="H11" s="9">
+      <c r="O11" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
+        <v>180</v>
+      </c>
+      <c r="D12" s="6">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>150</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2</v>
+      </c>
+      <c r="J12" s="6">
         <v>22</v>
       </c>
-      <c r="D12" s="8">
+      <c r="K12" s="6">
         <v>23</v>
       </c>
-      <c r="E12" s="8">
+      <c r="L12" s="6">
         <v>24</v>
       </c>
-      <c r="F12" s="9">
+      <c r="M12" s="7">
         <v>14</v>
       </c>
-      <c r="G12" s="9">
+      <c r="N12" s="7">
         <v>15</v>
       </c>
-      <c r="H12" s="9">
+      <c r="O12" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
+        <v>180</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6">
+        <v>150</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>25</v>
       </c>
-      <c r="D13" s="8">
+      <c r="K13" s="6">
         <v>26</v>
       </c>
-      <c r="E13" s="8">
+      <c r="L13" s="6">
         <v>27</v>
       </c>
-      <c r="F13" s="9">
+      <c r="M13" s="7">
         <v>17</v>
       </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="6">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="6">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>

--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Table_Stage" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>GliderGoblin_Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest _Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest_Boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,20 +570,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="17.09765625" customWidth="1"/>
     <col min="10" max="12" width="12" customWidth="1"/>
-    <col min="13" max="15" width="11.625" customWidth="1"/>
+    <col min="13" max="15" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -669,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -716,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -763,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -810,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -857,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -904,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -951,15 +959,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
@@ -968,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="6">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -998,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1045,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1139,15 +1147,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D13" s="6">
         <v>15</v>
@@ -1156,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="6">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -1186,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
     </row>
   </sheetData>

--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -125,11 +125,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>forest _Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>forest_Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceland</t>
+  </si>
+  <si>
+    <t>iceland_Boss</t>
+  </si>
+  <si>
+    <t>Use_Terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use_TileGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,17 +287,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,177 +588,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="17.09765625" customWidth="1"/>
-    <col min="10" max="12" width="12" customWidth="1"/>
-    <col min="13" max="15" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="17.09765625" customWidth="1"/>
+    <col min="12" max="14" width="12" customWidth="1"/>
+    <col min="15" max="17" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L2" s="3">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2</v>
       </c>
       <c r="O2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>6</v>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
         <v>120</v>
-      </c>
-      <c r="D4" s="6">
-        <v>121</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>121</v>
@@ -747,55 +787,61 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6">
         <v>28</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
+        <v>28</v>
+      </c>
+      <c r="N4" s="6">
+        <v>28</v>
+      </c>
+      <c r="O4" s="7">
         <v>18</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
         <v>120</v>
       </c>
-      <c r="D5" s="6">
+      <c r="F5" s="6">
         <v>30</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
         <v>90</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
       <c r="I5" s="6">
         <v>1</v>
       </c>
@@ -803,399 +849,927 @@
         <v>1</v>
       </c>
       <c r="K5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>3</v>
       </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
       <c r="O5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
         <v>120</v>
       </c>
-      <c r="D6" s="6">
+      <c r="F6" s="6">
         <v>30</v>
       </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
         <v>90</v>
       </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2</v>
-      </c>
       <c r="I6" s="6">
         <v>1</v>
       </c>
       <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
         <v>4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="M6" s="6">
         <v>5</v>
       </c>
-      <c r="L6" s="6">
+      <c r="N6" s="6">
         <v>6</v>
       </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
       <c r="O6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
         <v>150</v>
       </c>
-      <c r="D7" s="6">
+      <c r="F7" s="6">
         <v>30</v>
       </c>
-      <c r="E7" s="6">
+      <c r="G7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="H7" s="6">
         <v>120</v>
       </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
       <c r="I7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
         <v>7</v>
       </c>
-      <c r="K7" s="6">
+      <c r="M7" s="6">
         <v>8</v>
       </c>
-      <c r="L7" s="6">
+      <c r="N7" s="6">
         <v>9</v>
       </c>
-      <c r="M7" s="7">
+      <c r="O7" s="7">
         <v>3</v>
       </c>
-      <c r="N7" s="7">
+      <c r="P7" s="7">
         <v>4</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
         <v>150</v>
       </c>
-      <c r="D8" s="6">
+      <c r="F8" s="6">
         <v>30</v>
       </c>
-      <c r="E8" s="6">
+      <c r="G8" s="6">
         <v>4</v>
       </c>
-      <c r="F8" s="6">
+      <c r="H8" s="6">
         <v>120</v>
       </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2</v>
-      </c>
       <c r="I8" s="6">
         <v>2</v>
       </c>
       <c r="J8" s="6">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6">
         <v>10</v>
       </c>
-      <c r="K8" s="6">
+      <c r="M8" s="6">
         <v>11</v>
       </c>
-      <c r="L8" s="6">
+      <c r="N8" s="6">
         <v>12</v>
       </c>
-      <c r="M8" s="7">
+      <c r="O8" s="7">
         <v>5</v>
       </c>
-      <c r="N8" s="7">
+      <c r="P8" s="7">
         <v>6</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
         <v>180</v>
       </c>
-      <c r="D9" s="6">
+      <c r="F9" s="6">
         <v>15</v>
       </c>
-      <c r="E9" s="6">
+      <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="F9" s="6">
+      <c r="H9" s="6">
         <v>181</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
       <c r="I9" s="6">
         <v>0</v>
       </c>
       <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
         <v>13</v>
       </c>
-      <c r="K9" s="6">
+      <c r="M9" s="6">
         <v>14</v>
       </c>
-      <c r="L9" s="6">
+      <c r="N9" s="6">
         <v>15</v>
       </c>
-      <c r="M9" s="7">
+      <c r="O9" s="7">
         <v>17</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
         <v>150</v>
       </c>
-      <c r="D10" s="6">
+      <c r="F10" s="6">
         <v>30</v>
       </c>
-      <c r="E10" s="6">
+      <c r="G10" s="6">
         <v>5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="H10" s="6">
         <v>120</v>
       </c>
-      <c r="G10" s="6">
+      <c r="I10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" s="6">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6">
-        <v>2</v>
-      </c>
       <c r="J10" s="6">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6">
         <v>16</v>
       </c>
-      <c r="K10" s="6">
+      <c r="M10" s="6">
         <v>17</v>
       </c>
-      <c r="L10" s="6">
+      <c r="N10" s="6">
         <v>18</v>
       </c>
-      <c r="M10" s="7">
+      <c r="O10" s="7">
         <v>9</v>
       </c>
-      <c r="N10" s="7">
+      <c r="P10" s="7">
         <v>10</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
         <v>150</v>
       </c>
-      <c r="D11" s="6">
+      <c r="F11" s="6">
         <v>30</v>
       </c>
-      <c r="E11" s="6">
+      <c r="G11" s="6">
         <v>6</v>
       </c>
-      <c r="F11" s="6">
+      <c r="H11" s="6">
         <v>120</v>
       </c>
-      <c r="G11" s="6">
+      <c r="I11" s="6">
         <v>3</v>
       </c>
-      <c r="H11" s="6">
-        <v>2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
       <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6">
         <v>19</v>
       </c>
-      <c r="K11" s="6">
+      <c r="M11" s="6">
         <v>20</v>
       </c>
-      <c r="L11" s="6">
+      <c r="N11" s="6">
         <v>21</v>
       </c>
-      <c r="M11" s="7">
+      <c r="O11" s="7">
         <v>11</v>
       </c>
-      <c r="N11" s="7">
+      <c r="P11" s="7">
         <v>12</v>
       </c>
-      <c r="O11" s="7">
+      <c r="Q11" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
         <v>180</v>
       </c>
-      <c r="D12" s="6">
+      <c r="F12" s="6">
         <v>30</v>
       </c>
-      <c r="E12" s="6">
+      <c r="G12" s="6">
         <v>6</v>
       </c>
-      <c r="F12" s="6">
+      <c r="H12" s="6">
         <v>150</v>
       </c>
-      <c r="G12" s="6">
+      <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="H12" s="6">
+      <c r="J12" s="6">
         <v>3</v>
       </c>
-      <c r="I12" s="6">
-        <v>2</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
         <v>22</v>
       </c>
-      <c r="K12" s="6">
+      <c r="M12" s="6">
         <v>23</v>
       </c>
-      <c r="L12" s="6">
+      <c r="N12" s="6">
         <v>24</v>
       </c>
-      <c r="M12" s="7">
+      <c r="O12" s="7">
         <v>14</v>
       </c>
-      <c r="N12" s="7">
+      <c r="P12" s="7">
         <v>15</v>
       </c>
-      <c r="O12" s="7">
+      <c r="Q12" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>210</v>
+      </c>
+      <c r="F13" s="6">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6">
+        <v>211</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>25</v>
+      </c>
+      <c r="M13" s="6">
         <v>26</v>
       </c>
-      <c r="C13" s="6">
+      <c r="N13" s="6">
+        <v>27</v>
+      </c>
+      <c r="O13" s="7">
+        <v>17</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>120</v>
+      </c>
+      <c r="F14" s="6">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>90</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2</v>
+      </c>
+      <c r="N14" s="6">
+        <v>3</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>120</v>
+      </c>
+      <c r="F15" s="6">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>90</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>4</v>
+      </c>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="6">
+        <v>6</v>
+      </c>
+      <c r="O15" s="7">
+        <v>2</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>150</v>
+      </c>
+      <c r="F16" s="6">
+        <v>30</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>120</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>7</v>
+      </c>
+      <c r="M16" s="6">
+        <v>8</v>
+      </c>
+      <c r="N16" s="6">
+        <v>9</v>
+      </c>
+      <c r="O16" s="7">
+        <v>3</v>
+      </c>
+      <c r="P16" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>150</v>
+      </c>
+      <c r="F17" s="6">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4</v>
+      </c>
+      <c r="H17" s="6">
+        <v>120</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>10</v>
+      </c>
+      <c r="M17" s="6">
+        <v>11</v>
+      </c>
+      <c r="N17" s="6">
+        <v>12</v>
+      </c>
+      <c r="O17" s="7">
+        <v>5</v>
+      </c>
+      <c r="P17" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>180</v>
+      </c>
+      <c r="F18" s="6">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>181</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>13</v>
+      </c>
+      <c r="M18" s="6">
+        <v>14</v>
+      </c>
+      <c r="N18" s="6">
+        <v>15</v>
+      </c>
+      <c r="O18" s="7">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>150</v>
+      </c>
+      <c r="F19" s="6">
+        <v>30</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>120</v>
+      </c>
+      <c r="I19" s="6">
+        <v>3</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2</v>
+      </c>
+      <c r="L19" s="6">
+        <v>16</v>
+      </c>
+      <c r="M19" s="6">
+        <v>17</v>
+      </c>
+      <c r="N19" s="6">
+        <v>18</v>
+      </c>
+      <c r="O19" s="7">
+        <v>9</v>
+      </c>
+      <c r="P19" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>150</v>
+      </c>
+      <c r="F20" s="6">
+        <v>30</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6</v>
+      </c>
+      <c r="H20" s="6">
+        <v>120</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2</v>
+      </c>
+      <c r="L20" s="6">
+        <v>19</v>
+      </c>
+      <c r="M20" s="6">
+        <v>20</v>
+      </c>
+      <c r="N20" s="6">
+        <v>21</v>
+      </c>
+      <c r="O20" s="7">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" s="6">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>180</v>
+      </c>
+      <c r="F21" s="6">
+        <v>30</v>
+      </c>
+      <c r="G21" s="6">
+        <v>6</v>
+      </c>
+      <c r="H21" s="6">
+        <v>150</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6">
+        <v>3</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2</v>
+      </c>
+      <c r="L21" s="6">
+        <v>22</v>
+      </c>
+      <c r="M21" s="6">
+        <v>23</v>
+      </c>
+      <c r="N21" s="6">
+        <v>24</v>
+      </c>
+      <c r="O21" s="7">
+        <v>14</v>
+      </c>
+      <c r="P21" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" s="6">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
         <v>210</v>
       </c>
-      <c r="D13" s="6">
+      <c r="F22" s="6">
         <v>15</v>
       </c>
-      <c r="E13" s="6">
+      <c r="G22" s="6">
         <v>7</v>
       </c>
-      <c r="F13" s="6">
+      <c r="H22" s="6">
         <v>211</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
         <v>25</v>
       </c>
-      <c r="K13" s="6">
+      <c r="M22" s="6">
         <v>26</v>
       </c>
-      <c r="L13" s="6">
+      <c r="N22" s="6">
         <v>27</v>
       </c>
-      <c r="M13" s="7">
+      <c r="O22" s="7">
         <v>17</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1723,51 +1723,104 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>180</v>
+      </c>
+      <c r="F22" s="6">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6">
+        <v>6</v>
+      </c>
+      <c r="H22" s="6">
+        <v>150</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2</v>
+      </c>
+      <c r="L22" s="6">
+        <v>22</v>
+      </c>
+      <c r="M22" s="6">
+        <v>23</v>
+      </c>
+      <c r="N22" s="6">
+        <v>24</v>
+      </c>
+      <c r="O22" s="7">
+        <v>14</v>
+      </c>
+      <c r="P22" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="6">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="C23" s="11">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
         <v>210</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>15</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>7</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="6">
         <v>211</v>
       </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
         <v>25</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M23" s="6">
         <v>26</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N23" s="6">
         <v>27</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O23" s="7">
         <v>17</v>
       </c>
-      <c r="P22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7">
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Stage_Table.xlsx
@@ -590,8 +590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1329,16 +1330,16 @@
         <v>1</v>
       </c>
       <c r="L14" s="6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="M14" s="6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N14" s="6">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O14" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7">
         <v>0</v>
@@ -1382,16 +1383,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="6">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M15" s="6">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N15" s="6">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O15" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7">
         <v>0</v>
@@ -1435,19 +1436,19 @@
         <v>1</v>
       </c>
       <c r="L16" s="6">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M16" s="6">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N16" s="6">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="O16" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="P16" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="7">
         <v>0</v>
@@ -1488,19 +1489,19 @@
         <v>2</v>
       </c>
       <c r="L17" s="6">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="M17" s="6">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N17" s="6">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="O17" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="P17" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7">
         <v>0</v>
@@ -1541,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="L18" s="6">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M18" s="6">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="N18" s="6">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="O18" s="7">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="P18" s="7">
         <v>0</v>
@@ -1594,19 +1595,19 @@
         <v>2</v>
       </c>
       <c r="L19" s="6">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M19" s="6">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N19" s="6">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="O19" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="P19" s="7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="7">
         <v>0</v>
@@ -1647,22 +1648,22 @@
         <v>2</v>
       </c>
       <c r="L20" s="6">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M20" s="6">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N20" s="6">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="O20" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="P20" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="7">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
@@ -1700,22 +1701,22 @@
         <v>2</v>
       </c>
       <c r="L21" s="6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M21" s="6">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N21" s="6">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="O21" s="7">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="7">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
@@ -1753,22 +1754,22 @@
         <v>2</v>
       </c>
       <c r="L22" s="6">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M22" s="6">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N22" s="6">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="O22" s="7">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="P22" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="7">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
@@ -1806,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="L23" s="6">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M23" s="6">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N23" s="6">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O23" s="7">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7">
         <v>0</v>
